--- a/venv/src/custom_process_template.xlsx
+++ b/venv/src/custom_process_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="24135" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="custom_process" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,18 +43,6 @@
           </rPr>
           <t xml:space="preserve">在生产网段访问该服务器使用的IP。通常就是服务器物理IP，但是有NAT的情况下，需要输入NAT映射后的IP
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>服务器的本机物理IP，通常就是10网段的本机生产IP。</t>
         </r>
       </text>
     </comment>
@@ -70,25 +58,40 @@
         </r>
       </text>
     </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>服务器的本机物理IP，通常就是10网段的本机生产IP。</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>动作</t>
   </si>
   <si>
+    <t>应用系统代码</t>
+  </si>
+  <si>
     <t>服务器访问IP</t>
   </si>
   <si>
+    <t>服务IP</t>
+  </si>
+  <si>
     <t>服务器物理IP</t>
   </si>
   <si>
-    <t>服务IP</t>
-  </si>
-  <si>
     <t>进程描述</t>
   </si>
   <si>
@@ -116,6 +119,9 @@
     <t>ADD</t>
   </si>
   <si>
+    <t>EBIP</t>
+  </si>
+  <si>
     <t>1.1.1.1</t>
   </si>
   <si>
@@ -129,6 +135,9 @@
   </si>
   <si>
     <t>/bin/sh /weblogic/domains/cbwms_domain/bin/startManagedWebLogic.sh AapServer03 http://10.1.48.77:17101</t>
+  </si>
+  <si>
+    <t>0000</t>
   </si>
   <si>
     <t>APP</t>
@@ -143,9 +152,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -171,9 +180,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,6 +263,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -208,113 +300,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,7 +338,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,7 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,6 +398,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -371,6 +452,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -383,139 +500,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,21 +548,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -577,8 +565,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,9 +612,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,26 +644,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,156 +664,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1135,48 +1135,48 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="2" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="26.75" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="10.75" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="24.75" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="26.75" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1194,180 +1194,196 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:13">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" ht="30" customHeight="1" spans="1:14">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5">
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3">
         <v>1</v>
       </c>
-      <c r="I2" s="5">
+      <c r="J2" s="3">
         <v>1</v>
       </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3">
         <v>2400</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>19</v>
+      <c r="M2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4 A5 A6 A7 A8 A9 A10 A11">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 B3 A4 B4 A5 B5 A6 B6 A7 B7 A8 B8 A9 B9 A10 B10 A11 B11">
       <formula1>"ADD,UPDATE,DELETE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 L3 L4 L5 L6 L7 L8 L9 L10 L11">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3 M4 M5 M6 M7 M8 M9 M10 M11">
       <formula1>"APP,OS,OTHERS"</formula1>
     </dataValidation>
   </dataValidations>
